--- a/dx/figures/result.xlsx
+++ b/dx/figures/result.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1335" yWindow="0" windowWidth="15330" windowHeight="6090" activeTab="1"/>
+    <workbookView xWindow="2670" yWindow="0" windowWidth="20265" windowHeight="10125" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -1542,7 +1542,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1603,7 +1603,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1646,7 +1646,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2451,7 +2451,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2477,8 +2477,8 @@
         <c:axId val="2085191231"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1555.2"/>
-          <c:min val="1554.4"/>
+          <c:max val="1555.5"/>
+          <c:min val="1554.1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2512,7 +2512,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2535,8 +2535,8 @@
         <c:axId val="2082655247"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1560.5"/>
-          <c:min val="1548"/>
+          <c:max val="1580.5"/>
+          <c:min val="1528"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -2556,7 +2556,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2606,9 +2606,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.80149407272741358"/>
-          <c:y val="8.4086034935068429E-2"/>
-          <c:w val="0.10357626626990914"/>
+          <c:x val="0.78418564276507796"/>
+          <c:y val="8.4086013625844239E-2"/>
+          <c:w val="0.16357877468128459"/>
           <c:h val="0.12392125298579829"/>
         </c:manualLayout>
       </c:layout>
@@ -2625,7 +2625,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3835,8 +3835,8 @@
       <xdr:rowOff>104061</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>443143</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>459442</xdr:colOff>
       <xdr:row>96</xdr:row>
       <xdr:rowOff>99299</xdr:rowOff>
     </xdr:to>
@@ -4149,8 +4149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N217"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D103" sqref="D103"/>
+    <sheetView topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O66" sqref="O66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5925,7 +5925,7 @@
         <v>74.452914288787838</v>
       </c>
       <c r="B102">
-        <f t="shared" ref="B102:D102" si="2">STDEV(B2:B100)</f>
+        <f t="shared" ref="B102:C102" si="2">STDEV(B2:B100)</f>
         <v>51.742227349769486</v>
       </c>
       <c r="C102">
@@ -7052,8 +7052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B8:G134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G133" sqref="G133"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L104" sqref="L104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
